--- a/PRAXE/Samostudium 02/vysledky.xlsx
+++ b/PRAXE/Samostudium 02/vysledky.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\4.-rocnik-SPSCV-obor-Automatizace\PRAXE\Samostudium 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{40CBD793-9E17-4A1C-A49A-E73357AB2E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1219F1B5-4745-44D6-80EA-2F9AD25F91C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4,4" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00000000000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,12 +183,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -331,6 +335,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -350,15 +363,6 @@
           <bgColor theme="8" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1240,6 +1244,436 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>e^1 = f(počet iterací)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4,4'!$E$48:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4,4'!$F$48:$F$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000000000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6666666666666599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7083333333333299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7166666666666601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7180555555555501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7182539682539599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7182787698412598</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.71828152557319</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7182818011463801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7182818261984898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7182818282861598</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.71828182844675</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.71828182845822</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.71828182845899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7182818284590402</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7182818284590402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D705-487C-BA77-46417C09C050}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1483493055"/>
+        <c:axId val="1310920911"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1483493055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="18"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1310920911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1310920911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1483493055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1280,7 +1714,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1834,16 +2824,52 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5602</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>68355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>87922</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graf 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999A249F-8FD7-4C24-8536-8E63D35ECA76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabulka2" displayName="Tabulka2" ref="A2:C7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A2:C7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabulka2" displayName="Tabulka2" ref="A2:C7" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A2:C7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Algoritmus" dataDxfId="24"/>
-    <tableColumn id="2" name="Celková doba (ms)" dataDxfId="23"/>
-    <tableColumn id="3" name="Doba jednoho výpočtu (ns)" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Algoritmus" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Celková doba (ms)" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Doba jednoho výpočtu (ns)" dataDxfId="20">
       <calculatedColumnFormula>B3/10000000*1000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1852,12 +2878,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabulka26" displayName="Tabulka26" ref="A11:C16" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A11:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabulka26" displayName="Tabulka26" ref="A11:C16" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A11:C16" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Algoritmus" dataDxfId="17"/>
-    <tableColumn id="2" name="Celková doba (ms)" dataDxfId="16"/>
-    <tableColumn id="3" name="Doba jednoho výpočtu (ns)" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Algoritmus" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Celková doba (ms)" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Doba jednoho výpočtu (ns)" dataDxfId="15">
       <calculatedColumnFormula>B12/10000000*1000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1866,12 +2892,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabulka267" displayName="Tabulka267" ref="A20:C25" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A20:C25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabulka267" displayName="Tabulka267" ref="A20:C25" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A20:C25" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Algoritmus" dataDxfId="12"/>
-    <tableColumn id="2" name="Celková doba (ms)" dataDxfId="11"/>
-    <tableColumn id="3" name="Doba jednoho výpočtu (ns)" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Algoritmus" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Celková doba (ms)" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Doba jednoho výpočtu (ns)" dataDxfId="10">
       <calculatedColumnFormula>B21/10000000*1000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1880,12 +2906,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabulka268" displayName="Tabulka268" ref="A29:C34" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A29:C34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabulka268" displayName="Tabulka268" ref="A29:C34" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A29:C34" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Algoritmus" dataDxfId="7"/>
-    <tableColumn id="2" name="Celková doba (ms)" dataDxfId="6"/>
-    <tableColumn id="3" name="Doba jednoho výpočtu (ns)" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Algoritmus" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Celková doba (ms)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Doba jednoho výpočtu (ns)" dataDxfId="5">
       <calculatedColumnFormula>B30/10000000*1000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1894,12 +2920,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabulka2689" displayName="Tabulka2689" ref="A38:C43" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A38:C43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabulka2689" displayName="Tabulka2689" ref="A38:C43" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A38:C43" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Algoritmus" dataDxfId="2"/>
-    <tableColumn id="2" name="Celková doba (ms)" dataDxfId="1"/>
-    <tableColumn id="3" name="Doba jednoho výpočtu (ns)" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Algoritmus" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Celková doba (ms)" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Doba jednoho výpočtu (ns)" dataDxfId="0">
       <calculatedColumnFormula>B39/10000000*1000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2203,25 +3229,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView tabSelected="1" topLeftCell="D41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
@@ -2237,10 +3264,10 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2450,11 +3477,11 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="G8">
         <v>4.4000000000000004</v>
       </c>
@@ -2487,11 +3514,11 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2565,18 +3592,18 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -2650,18 +3677,18 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -2710,7 +3737,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2722,7 +3749,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2734,21 +3761,21 @@
         <v>378.7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -2759,7 +3786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -2771,7 +3798,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -2783,7 +3810,7 @@
         <v>167.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -2795,7 +3822,7 @@
         <v>102.39999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2807,7 +3834,7 @@
         <v>790.4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2819,25 +3846,177 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52" s="6">
+        <v>2.6666666666666599</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53" s="6">
+        <v>2.7083333333333299</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54" s="6">
+        <v>2.7166666666666601</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="F55" s="6">
+        <v>2.7180555555555501</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56" s="6">
+        <v>2.7182539682539599</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>9</v>
+      </c>
+      <c r="F57" s="6">
+        <v>2.7182787698412598</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58" s="6">
+        <v>2.71828152557319</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>11</v>
+      </c>
+      <c r="F59" s="6">
+        <v>2.7182818011463801</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>12</v>
+      </c>
+      <c r="F60" s="6">
+        <v>2.7182818261984898</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>13</v>
+      </c>
+      <c r="F61" s="6">
+        <v>2.7182818282861598</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>14</v>
+      </c>
+      <c r="F62" s="6">
+        <v>2.71828182844675</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>15</v>
+      </c>
+      <c r="F63" s="6">
+        <v>2.71828182845822</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>16</v>
+      </c>
+      <c r="F64" s="6">
+        <v>2.71828182845899</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>17</v>
+      </c>
+      <c r="F65" s="6">
+        <v>2.7182818284590402</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>18</v>
+      </c>
+      <c r="F66" s="6">
+        <v>2.7182818284590402</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
